--- a/natmiOut/OldD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H2">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I2">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J2">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.401699198746283</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="N2">
-        <v>0.401699198746283</v>
+        <v>0.145021</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.05773430063430857</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.05773430063430857</v>
       </c>
       <c r="Q2">
-        <v>2.038263880740613</v>
+        <v>0.2463489612923334</v>
       </c>
       <c r="R2">
-        <v>2.038263880740613</v>
+        <v>1.478093767754</v>
       </c>
       <c r="S2">
-        <v>0.5805737254136637</v>
+        <v>0.03254211484088566</v>
       </c>
       <c r="T2">
-        <v>0.5805737254136637</v>
+        <v>0.02739244465479765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.347283572867315</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H3">
-        <v>0.347283572867315</v>
+        <v>10.192274</v>
       </c>
       <c r="I3">
-        <v>0.03973581958813029</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J3">
-        <v>0.03973581958813029</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.401699198746283</v>
+        <v>0.3599349999999999</v>
       </c>
       <c r="N3">
-        <v>0.401699198746283</v>
+        <v>1.079805</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.429881096506227</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.429881096506227</v>
       </c>
       <c r="Q3">
-        <v>0.1395035329585468</v>
+        <v>1.834278071095</v>
       </c>
       <c r="R3">
-        <v>0.1395035329585468</v>
+        <v>11.00566842657</v>
       </c>
       <c r="S3">
-        <v>0.03973581958813029</v>
+        <v>0.2423037926628732</v>
       </c>
       <c r="T3">
-        <v>0.03973581958813029</v>
+        <v>0.2039601071601614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.102262841073909</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H4">
-        <v>0.102262841073909</v>
+        <v>10.192274</v>
       </c>
       <c r="I4">
-        <v>0.01170080626023451</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J4">
-        <v>0.01170080626023451</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.401699198746283</v>
+        <v>0.4290143333333333</v>
       </c>
       <c r="N4">
-        <v>0.401699198746283</v>
+        <v>1.287043</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5123846028594644</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5123846028594644</v>
       </c>
       <c r="Q4">
-        <v>0.04107890132090773</v>
+        <v>2.186315817630334</v>
       </c>
       <c r="R4">
-        <v>0.04107890132090773</v>
+        <v>13.117894905782</v>
       </c>
       <c r="S4">
-        <v>0.01170080626023451</v>
+        <v>0.2888071459385744</v>
       </c>
       <c r="T4">
-        <v>0.01170080626023451</v>
+        <v>0.2431044755300593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.142017893942207</v>
+        <v>0.351338</v>
       </c>
       <c r="H5">
-        <v>0.142017893942207</v>
+        <v>1.054014</v>
       </c>
       <c r="I5">
-        <v>0.01624953741802763</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J5">
-        <v>0.01624953741802763</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.401699198746283</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="N5">
-        <v>0.401699198746283</v>
+        <v>0.145021</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.05773430063430857</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.05773430063430857</v>
       </c>
       <c r="Q5">
-        <v>0.05704847420421916</v>
+        <v>0.01698379603266667</v>
       </c>
       <c r="R5">
-        <v>0.05704847420421916</v>
+        <v>0.152854164294</v>
       </c>
       <c r="S5">
-        <v>0.01624953741802763</v>
+        <v>0.002243519266449683</v>
       </c>
       <c r="T5">
-        <v>0.01624953741802763</v>
+        <v>0.002832735870364345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.53131495580557</v>
+        <v>0.351338</v>
       </c>
       <c r="H6">
-        <v>2.53131495580557</v>
+        <v>1.054014</v>
       </c>
       <c r="I6">
-        <v>0.2896303835340226</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J6">
-        <v>0.2896303835340226</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.401699198746283</v>
+        <v>0.3599349999999999</v>
       </c>
       <c r="N6">
-        <v>0.401699198746283</v>
+        <v>1.079805</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.429881096506227</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.429881096506227</v>
       </c>
       <c r="Q6">
-        <v>1.01682718952158</v>
+        <v>0.12645884303</v>
       </c>
       <c r="R6">
-        <v>1.01682718952158</v>
+        <v>1.13812958727</v>
       </c>
       <c r="S6">
-        <v>0.2896303835340226</v>
+        <v>0.01670491391942339</v>
       </c>
       <c r="T6">
-        <v>0.2896303835340226</v>
+        <v>0.0210921339426619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.542827312960577</v>
+        <v>0.351338</v>
       </c>
       <c r="H7">
-        <v>0.542827312960577</v>
+        <v>1.054014</v>
       </c>
       <c r="I7">
-        <v>0.06210972778592109</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J7">
-        <v>0.06210972778592109</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.401699198746283</v>
+        <v>0.4290143333333333</v>
       </c>
       <c r="N7">
-        <v>0.401699198746283</v>
+        <v>1.287043</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.5123846028594644</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.5123846028594644</v>
       </c>
       <c r="Q7">
-        <v>0.2180532966738616</v>
+        <v>0.1507290378446667</v>
       </c>
       <c r="R7">
-        <v>0.2180532966738616</v>
+        <v>1.356561340602</v>
       </c>
       <c r="S7">
-        <v>0.06210972778592109</v>
+        <v>0.01991094922286564</v>
       </c>
       <c r="T7">
-        <v>0.06210972778592109</v>
+        <v>0.0251401719254545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1440186666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.432056</v>
+      </c>
+      <c r="I8">
+        <v>0.01592903825375186</v>
+      </c>
+      <c r="J8">
+        <v>0.02011248965702641</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04834033333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.145021</v>
+      </c>
+      <c r="O8">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="P8">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="Q8">
+        <v>0.006961910352888889</v>
+      </c>
+      <c r="R8">
+        <v>0.06265719317600001</v>
+      </c>
+      <c r="S8">
+        <v>0.0009196518833575114</v>
+      </c>
+      <c r="T8">
+        <v>0.001161180524363185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1440186666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.432056</v>
+      </c>
+      <c r="I9">
+        <v>0.01592903825375186</v>
+      </c>
+      <c r="J9">
+        <v>0.02011248965702641</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.3599349999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.079805</v>
+      </c>
+      <c r="O9">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="P9">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="Q9">
+        <v>0.05183735878666666</v>
+      </c>
+      <c r="R9">
+        <v>0.46653622908</v>
+      </c>
+      <c r="S9">
+        <v>0.006847592430812485</v>
+      </c>
+      <c r="T9">
+        <v>0.008645979107232664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1440186666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.432056</v>
+      </c>
+      <c r="I10">
+        <v>0.01592903825375186</v>
+      </c>
+      <c r="J10">
+        <v>0.02011248965702641</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4290143333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.287043</v>
+      </c>
+      <c r="O10">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="P10">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="Q10">
+        <v>0.06178607226755555</v>
+      </c>
+      <c r="R10">
+        <v>0.556074650408</v>
+      </c>
+      <c r="S10">
+        <v>0.008161793939581862</v>
+      </c>
+      <c r="T10">
+        <v>0.01030533002543056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1477046666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.443114</v>
+      </c>
+      <c r="I11">
+        <v>0.01633672453749746</v>
+      </c>
+      <c r="J11">
+        <v>0.02062724679644213</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04834033333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.145021</v>
+      </c>
+      <c r="O11">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="P11">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="Q11">
+        <v>0.007140092821555557</v>
+      </c>
+      <c r="R11">
+        <v>0.064260835394</v>
+      </c>
+      <c r="S11">
+        <v>0.0009431893658277639</v>
+      </c>
+      <c r="T11">
+        <v>0.001190899667803868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1477046666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.443114</v>
+      </c>
+      <c r="I12">
+        <v>0.01633672453749746</v>
+      </c>
+      <c r="J12">
+        <v>0.02062724679644213</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.3599349999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.079805</v>
+      </c>
+      <c r="O12">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="P12">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="Q12">
+        <v>0.05316407919666667</v>
+      </c>
+      <c r="R12">
+        <v>0.47847671277</v>
+      </c>
+      <c r="S12">
+        <v>0.007022849057499593</v>
+      </c>
+      <c r="T12">
+        <v>0.008867263470759102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1477046666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.443114</v>
+      </c>
+      <c r="I13">
+        <v>0.01633672453749746</v>
+      </c>
+      <c r="J13">
+        <v>0.02062724679644213</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4290143333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.287043</v>
+      </c>
+      <c r="O13">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="P13">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="Q13">
+        <v>0.06336741910022223</v>
+      </c>
+      <c r="R13">
+        <v>0.570306771902</v>
+      </c>
+      <c r="S13">
+        <v>0.008370686114170104</v>
+      </c>
+      <c r="T13">
+        <v>0.01056908365787916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.756382333333333</v>
+      </c>
+      <c r="H14">
+        <v>8.269147</v>
+      </c>
+      <c r="I14">
+        <v>0.3048668665378966</v>
+      </c>
+      <c r="J14">
+        <v>0.3849342064684462</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04834033333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.145021</v>
+      </c>
+      <c r="O14">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="P14">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="Q14">
+        <v>0.1332444407874445</v>
+      </c>
+      <c r="R14">
+        <v>1.199199967087</v>
+      </c>
+      <c r="S14">
+        <v>0.01760127532613855</v>
+      </c>
+      <c r="T14">
+        <v>0.02222390720067828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.756382333333333</v>
+      </c>
+      <c r="H15">
+        <v>8.269147</v>
+      </c>
+      <c r="I15">
+        <v>0.3048668665378966</v>
+      </c>
+      <c r="J15">
+        <v>0.3849342064684462</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.3599349999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.079805</v>
+      </c>
+      <c r="O15">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="P15">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="Q15">
+        <v>0.9921184751483332</v>
+      </c>
+      <c r="R15">
+        <v>8.929066276335</v>
+      </c>
+      <c r="S15">
+        <v>0.1310565028757286</v>
+      </c>
+      <c r="T15">
+        <v>0.16547593875941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.756382333333333</v>
+      </c>
+      <c r="H16">
+        <v>8.269147</v>
+      </c>
+      <c r="I16">
+        <v>0.3048668665378966</v>
+      </c>
+      <c r="J16">
+        <v>0.3849342064684462</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4290143333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.287043</v>
+      </c>
+      <c r="O16">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="P16">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="Q16">
+        <v>1.182527529146778</v>
+      </c>
+      <c r="R16">
+        <v>10.642747762321</v>
+      </c>
+      <c r="S16">
+        <v>0.1562090883360295</v>
+      </c>
+      <c r="T16">
+        <v>0.1972343605083579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.545685</v>
+      </c>
+      <c r="H17">
+        <v>1.09137</v>
+      </c>
+      <c r="I17">
+        <v>0.06035493481978205</v>
+      </c>
+      <c r="J17">
+        <v>0.05080398799458615</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04834033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.145021</v>
+      </c>
+      <c r="O17">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="P17">
+        <v>0.05773430063430857</v>
+      </c>
+      <c r="Q17">
+        <v>0.026378594795</v>
+      </c>
+      <c r="R17">
+        <v>0.15827156877</v>
+      </c>
+      <c r="S17">
+        <v>0.003484549951649395</v>
+      </c>
+      <c r="T17">
+        <v>0.00293313271630124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.545685</v>
+      </c>
+      <c r="H18">
+        <v>1.09137</v>
+      </c>
+      <c r="I18">
+        <v>0.06035493481978205</v>
+      </c>
+      <c r="J18">
+        <v>0.05080398799458615</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.3599349999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.079805</v>
+      </c>
+      <c r="O18">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="P18">
+        <v>0.429881096506227</v>
+      </c>
+      <c r="Q18">
+        <v>0.196411130475</v>
+      </c>
+      <c r="R18">
+        <v>1.17846678285</v>
+      </c>
+      <c r="S18">
+        <v>0.02594544555988977</v>
+      </c>
+      <c r="T18">
+        <v>0.02183967406600189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.545685</v>
+      </c>
+      <c r="H19">
+        <v>1.09137</v>
+      </c>
+      <c r="I19">
+        <v>0.06035493481978205</v>
+      </c>
+      <c r="J19">
+        <v>0.05080398799458615</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4290143333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.287043</v>
+      </c>
+      <c r="O19">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="P19">
+        <v>0.5123846028594644</v>
+      </c>
+      <c r="Q19">
+        <v>0.234106686485</v>
+      </c>
+      <c r="R19">
+        <v>1.40464011891</v>
+      </c>
+      <c r="S19">
+        <v>0.03092493930824288</v>
+      </c>
+      <c r="T19">
+        <v>0.02603118121228302</v>
       </c>
     </row>
   </sheetData>
